--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\EjercicioSemillero\Reto2-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\EjercicioSemillero\automatizacionRetoDos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Lamparas</t>
-  </si>
-  <si>
     <t>Direccion</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>soyunaprueba@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lamparas</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -534,42 +534,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -605,22 +605,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
